--- a/factor_returns_output_v3.xlsx
+++ b/factor_returns_output_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\Dissertation\Zhengyu-Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB20C89-803E-4192-84C7-1D39CC4316DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937758EF-A203-4857-A9C0-E970A59E33B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1760" windowWidth="14400" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="29">
   <si>
     <t>Factor</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>BTCReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -265,6 +269,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W307"/>
+  <dimension ref="A1:X307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -580,12 +590,12 @@
     <col min="3" max="5" width="8.7265625" style="10"/>
     <col min="6" max="6" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="10.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -607,54 +617,56 @@
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45495</v>
       </c>
@@ -676,53 +688,57 @@
       <c r="G2" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H2">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="1">
         <v>45495</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>-3.9949867707482697E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1.2092777000793984E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>7.3601326835732372E-3</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>-5.7698430788072547E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>3.9188895622059702E-3</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>-3.1727614153625384E-2</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>-1.1802086762369705E-2</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>-0.10462684222970124</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>-4.2374046186100842E-2</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <v>-0.136908854866753</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>1.7006490275945637E-2</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <v>-9.7666823510363251E-2</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>-8.2763138115467913E-2</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <v>-4.619608004216974E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>45495</v>
       </c>
@@ -744,53 +760,57 @@
       <c r="G3" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="1">
         <v>45502</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>-0.13502916663923553</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>-0.17407731219968933</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>-0.13052774789473959</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>-0.13753317651006769</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>-9.104736415016379E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>-0.12242620841459365</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>-0.10400409012171911</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>-0.13271854539335426</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>0.11732562329070741</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>-0.10245863150579805</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>-0.1462024503550578</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>-8.4341450410504365E-2</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>-0.10377325100700761</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>-0.1055359770321193</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>45495</v>
       </c>
@@ -812,53 +832,57 @@
       <c r="G4" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="1">
         <v>45509</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>-0.16522587651208032</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>-0.12748896652936564</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>-0.22915011081976644</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>-0.13671401571054917</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>-0.19235692013915895</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>-0.17438789136363597</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>-0.17188972495898239</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>-0.19923731235978484</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>-8.9054399601688483E-2</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>-0.26800688176143195</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>-0.1376319616096684</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>-0.19448377739443157</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>-0.15322225372813253</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>-0.25772180014315343</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>45495</v>
       </c>
@@ -880,53 +904,57 @@
       <c r="G5" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="1">
         <v>45516</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>3.9654848302253062E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>-1.0998707925155542E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>3.7285561358962424E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>7.5750931527586371E-3</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.10303525343423961</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>2.8328089461078482E-2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>3.4962072856033283E-2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>-4.7792405591824086E-2</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>8.9267560347757471E-2</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <v>-2.4710180135740285E-2</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>0.20009742817514325</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>5.9932198675500988E-2</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>8.2517567190985172E-2</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>-9.5455744425082499E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>45495</v>
       </c>
@@ -948,53 +976,57 @@
       <c r="G6" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="1">
         <v>45523</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>3.4740634336548552E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>2.6989326160028516E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>7.7285327860431269E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0.12489738879531188</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>6.1656325445030406E-2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>7.1507877162313813E-2</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>0.12907740155297204</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>6.8637112627934899E-2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>0.26719687160621086</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <v>0.11362083125926468</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>1.5431909697379384E-2</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>0.13217387654045459</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>5.592234921819713E-2</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>7.9396991506276868E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45495</v>
       </c>
@@ -1016,53 +1048,57 @@
       <c r="G7" s="7">
         <v>3.4630000000000001E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7">
+        <v>4.2939118787305781E-2</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="1">
         <v>45530</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>-9.0190989251884693E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>-3.1998421815900104E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>-0.10220043827750305</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>-4.6331416265064998E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>-5.1745666057033027E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>-8.762281185918068E-2</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>2.8636241391003327E-2</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>-9.6428806817095244E-2</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>-6.6140985900330268E-2</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <v>-8.7897930518794132E-2</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>-3.0965652614740193E-2</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <v>-0.10604278140626471</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>-0.15698425984845837</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>4.2871732645734399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45502</v>
       </c>
@@ -1084,53 +1120,57 @@
       <c r="G8" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H8">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="1">
         <v>45537</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>-4.2436553675319968E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>-6.0142407691294281E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>-9.2204016230529873E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>-3.296340681854968E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>-9.1977492691415808E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>-5.5981065094484965E-2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>-5.8329950145340551E-2</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>2.8050528009939603E-2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>1.9668261097925365E-2</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>-9.0464099821422519E-2</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>-7.2456797699734385E-2</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>-5.7546484377934075E-2</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>-8.24189376441333E-2</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>0.15444253540027295</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45502</v>
       </c>
@@ -1152,53 +1192,57 @@
       <c r="G9" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="1">
         <v>45544</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.2858541632449643E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>6.8237036803824314E-3</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>4.9586475855391735E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.12443330372428842</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>9.8822494010926201E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>5.7531837078776231E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>2.5997161437629836E-2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>3.2068723024534077E-2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>0.13231928444054908</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>5.2418706254024512E-2</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>-3.4607599185810657E-3</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>8.1174731451209264E-2</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>4.1709147067804021E-2</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>-7.0367670279314204E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>45502</v>
       </c>
@@ -1220,53 +1264,57 @@
       <c r="G10" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="1">
         <v>45551</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6.1714102155408825E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>4.7377635075018902E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>1.6251925194268046E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>2.8991829961387001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.30402948354782733</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>9.5768702069545311E-3</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>5.7048875023950667E-2</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>2.0557765213467624E-2</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>2.6011431174684727E-2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>3.4886441070200315E-2</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <v>9.4387845539259056E-3</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <v>6.3935819647341768E-2</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>7.2877933000291845E-3</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>-3.9915074309977802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>45502</v>
       </c>
@@ -1288,53 +1336,57 @@
       <c r="G11" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="H11">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="1">
         <v>45558</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.12496000475079473</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.795588050816564E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.10704460358718261</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.12573871495033528</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>0.10399640497504911</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>0.10717644978465127</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>4.8541311873199385E-2</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>0.13203113031555183</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>0.11968650979201222</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <v>0.21074536271698924</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <v>6.4499687439393147E-2</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <v>0.12646374008047817</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>0.12990912691368259</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>7.5873036784701878E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45502</v>
       </c>
@@ -1356,53 +1408,57 @@
       <c r="G12" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="1">
         <v>45565</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>-0.11407639359921312</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>-7.586549799429966E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>-0.12945855636377143</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>-9.1367935956775032E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>-0.10192751455909224</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>-3.4409608648258837E-2</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>-0.12997145950798808</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>-0.13141310805454295</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>-0.11278392981824729</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>-0.14649351100721592</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>-0.15223414376843106</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <v>-0.15693395433044338</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>-0.13695137492690596</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>-0.13854130769055792</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>45502</v>
       </c>
@@ -1424,53 +1480,57 @@
       <c r="G13" s="7">
         <v>3.1213000000000001E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="H13">
+        <v>-1.1297451709521001E-2</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="1">
         <v>45572</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>-4.0554836558886295E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>1.0038817211057318E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>-1.8870813066668064E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>7.7445942221682478E-3</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>1.823322235964242E-2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>-4.9205872365156021E-2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>5.666635872890638E-3</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>-1.4577533305669245E-2</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>-1.0682890819935838E-2</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>-3.4502655541325686E-2</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>-2.9322269612681664E-2</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>1.4761024587096301E-2</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>1.4419042465826088E-2</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>-1.7524550616101503E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>45509</v>
       </c>
@@ -1492,53 +1552,57 @@
       <c r="G14" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I14" s="1">
+      <c r="H14">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="1">
         <v>45579</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>6.454742305269616E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>4.4173861188444671E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>6.868655285579997E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>5.7029908552415937E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>8.3887351058709925E-2</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>6.8859846059071445E-2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>7.5088394342762099E-2</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>7.3015577553608227E-2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>7.9261665115490057E-2</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>8.2088697780500069E-2</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>0.10288832152609155</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>4.4398591851488173E-2</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>0.13101861035506779</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>-4.9421068078755605E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>45509</v>
       </c>
@@ -1560,53 +1624,57 @@
       <c r="G15" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I15" s="1">
+      <c r="H15">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="1">
         <v>45586</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>-3.7790748112726216E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>-4.9915079073516999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>-4.8172760492360661E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>-4.8008107155069188E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>-2.4946359170064842E-2</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>-6.1648689808438725E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>-5.2764625179151842E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>-3.4723709937495302E-2</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>-6.6952984015632697E-2</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <v>-5.7038262782769772E-2</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <v>-5.5238408991482107E-2</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>-2.4062996186897119E-2</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>4.7004927604011988E-2</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>-0.15592147176301485</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>45509</v>
       </c>
@@ -1628,53 +1696,57 @@
       <c r="G16" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I16" s="1">
+      <c r="H16">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="1">
         <v>45593</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>-4.3653935912935371E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>-1.0880031879059728E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>-9.5440765844370962E-3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>-4.3158714433423312E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>-2.9346081268084488E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>-2.7279080060625939E-2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>2.7895308346118958E-3</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>-5.6300128777877517E-2</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>-1.4148401091044645E-2</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <v>-3.51635126788723E-2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <v>2.6720146748083835E-2</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <v>-4.3705920737673092E-2</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <v>-6.5974755642265667E-2</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>-0.14863691747316471</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>45509</v>
       </c>
@@ -1696,53 +1768,57 @@
       <c r="G17" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I17" s="1">
+      <c r="H17">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="1">
         <v>45600</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.4900237495290123E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.13253838558266332</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>5.0340139472620504E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>-2.0612020843966752E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>0.50226913131204298</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>4.1000876434804032E-2</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>9.4707506708328046E-2</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>4.3410999449341611E-2</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>0.17048430959087441</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>0.15321840500905412</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>5.9846550985005756E-2</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>6.0636022789392341E-2</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>7.7878349900622437E-2</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>0.15767019667170917</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>45509</v>
       </c>
@@ -1764,53 +1840,57 @@
       <c r="G18" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I18" s="1">
+      <c r="H18">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="1">
         <v>45607</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>0.14436204186871138</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>0.10734973498318758</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>1.0440142854495396E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>7.505735034482261E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>-6.8826944811105489E-2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>0.11397406013181283</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>6.4541685659092463E-2</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>0.14493735985060194</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>9.8654736701716782E-3</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>-9.236950803692516E-3</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>0.14216196004336448</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>8.1333258204687411E-2</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>0.15529272605661815</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>7.3657248895742475E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>45509</v>
       </c>
@@ -1832,53 +1912,57 @@
       <c r="G19" s="7">
         <v>0.110026</v>
       </c>
-      <c r="I19" s="1">
+      <c r="H19">
+        <v>-0.19129684132499752</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1">
         <v>45614</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.20363878955530829</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>8.5144194103272772E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>7.4474233282565638E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.19816538155431476</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>-4.0668487545999936E-2</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>9.2128188587540766E-2</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>0.12464773245288467</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>0.17750858505930667</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>-1.9196331703362744E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>6.4801195902314007E-2</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>8.2435269574777398E-2</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>0.17877516480602182</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>8.8031910901723423E-2</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>7.0678104734269748E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>45516</v>
       </c>
@@ -1900,53 +1984,57 @@
       <c r="G20" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="H20">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1">
         <v>45621</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>0.20641009929044613</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>9.4413292994840581E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>0.70554186390055718</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0.19443316099582983</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>0.13591051200401033</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>0.15876720903931024</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>0.1684440352288053</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>0.1977974076643019</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>0.18308895020839847</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <v>0.37451882256316937</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <v>3.4606392790019952E-2</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <v>0.26941109645837163</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <v>0.19567842718178358</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>0.25814299291083315</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>45516</v>
       </c>
@@ -1968,53 +2056,57 @@
       <c r="G21" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="H21">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="1">
         <v>45628</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>0.19656727581598882</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>0.23750174176490263</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>0.26715346120377936</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>9.1886890236437646E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>0.14231858822409169</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>0.29079667491786437</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>0.23241599365165891</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <v>0.27319709762658645</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>0.31452214245107379</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <v>0.20126549382135794</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <v>0.23359431941162775</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>0.28289427039819487</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <v>0.28573459266095974</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>0.26939410586882051</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>45516</v>
       </c>
@@ -2036,53 +2128,57 @@
       <c r="G22" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="H22">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="1">
         <v>45635</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>-0.11055088322514736</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>0.14952060174061294</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>-2.8184327516567451E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>-7.3216507203001796E-2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>0.25889930735943523</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>-3.4326478952898955E-2</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>-0.13216599459706641</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <v>-9.1386732970353254E-2</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>0.2643913772800488</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <v>-1.1114311583197338E-3</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>1.3351211835871027E-2</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>-4.7237334694033309E-2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>1.324761023857365E-2</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>-0.20954049971740618</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>45516</v>
       </c>
@@ -2104,53 +2200,57 @@
       <c r="G23" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="H23">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="1">
         <v>45642</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>-0.15441713520395531</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>-4.9214558804837834E-2</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>-4.4165573892348431E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>-0.15239076441102378</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>0.29576790623999527</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>-0.17859550525072482</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>-0.16083069694856578</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <v>-0.14045106498184251</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>1.2002289642237766E-2</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <v>-0.11424484412591614</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <v>-0.19783908327983007</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <v>-0.20903541536136835</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <v>-0.21487828242641571</v>
       </c>
-      <c r="W23" s="4">
+      <c r="X23" s="4">
         <v>-0.20269681295565173</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>45516</v>
       </c>
@@ -2172,53 +2272,57 @@
       <c r="G24" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="H24">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="1">
         <v>45649</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>-7.3772211308243421E-2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>2.4882186296908429E-2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>-9.3272387482013719E-2</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>-8.2611200685093714E-2</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>0.26371252339778034</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>-7.8606786699808487E-2</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>6.0721200865388417E-2</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <v>-3.4130552822380977E-2</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>5.6247273214163937E-2</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <v>4.9268364059790043E-3</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <v>-6.5427268525436844E-2</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <v>-9.0388435372384043E-2</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <v>-7.2668687525530712E-2</v>
       </c>
-      <c r="W24" s="4">
+      <c r="X24" s="4">
         <v>-4.8021124867575787E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>45516</v>
       </c>
@@ -2240,53 +2344,57 @@
       <c r="G25" s="7">
         <v>3.3168999999999997E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="H25">
+        <v>8.4545639506527451E-2</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="1">
         <v>45656</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>3.0813949540132942E-2</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>8.8198888211796111E-2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>1.7212928206820539E-2</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>2.4784998039230781E-2</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>-6.3399967042518948E-2</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>1.7975093629447464E-2</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>9.7358639051234319E-3</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>9.6022628588442165E-3</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>-6.0125165889116906E-2</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <v>3.4249890008125165E-2</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <v>-1.2587215285591636E-2</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <v>-1.2688733992789636E-2</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <v>-1.7619033867795246E-3</v>
       </c>
-      <c r="W25" s="4">
+      <c r="X25" s="4">
         <v>2.5683249415104827E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>45523</v>
       </c>
@@ -2308,53 +2416,57 @@
       <c r="G26" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="H26">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="1">
         <v>45663</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>-2.1075990296808893E-2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>-8.0166538995890088E-2</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>-7.5466667391311443E-2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>-3.8417252652188864E-2</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>-0.17439149235777446</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>-4.0729429581016628E-2</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>-0.10545430229018599</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <v>-3.3581434539901603E-2</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>-0.10322173698984005</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <v>-0.12213752260227134</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <v>-0.11329194329825289</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <v>-9.2968623160081365E-2</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <v>-9.957855485280015E-2</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="4">
         <v>-9.2706805531779971E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>45523</v>
       </c>
@@ -2376,53 +2488,57 @@
       <c r="G27" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="H27">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="1">
         <v>45670</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>-3.9823737201311465E-2</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>-0.10098993823787077</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>1.5182190882042113E-2</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>-1.2318423103153639E-2</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>-4.0384427535835619E-2</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>4.2945007829326844E-2</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>-2.0301951575362992E-2</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <v>-4.906907888761676E-2</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>4.4929274071450323E-2</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <v>9.3318776353408892E-2</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <v>-3.2903798642362536E-2</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <v>-4.262295950856039E-2</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <v>-5.4837782600502427E-2</v>
       </c>
-      <c r="W27" s="4">
+      <c r="X27" s="4">
         <v>-2.6673160084855169E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>45523</v>
       </c>
@@ -2444,53 +2560,57 @@
       <c r="G28" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="H28">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1">
         <v>45677</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>-6.9087791408150301E-2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>4.7246598858677456E-2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>2.6320487528558988E-2</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>-7.5439087539802843E-2</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>-0.12999192863881218</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>-1.5005888861702522E-2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>-8.4083858898559363E-2</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>-0.13621933236042674</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>8.7012276708166136E-2</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <v>4.2158105674842163E-2</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <v>-8.0810889464323826E-2</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <v>-0.10606838668786296</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <v>-0.11247247182039885</v>
       </c>
-      <c r="W28" s="4">
+      <c r="X28" s="4">
         <v>-9.8784222397447344E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>45523</v>
       </c>
@@ -2512,53 +2632,57 @@
       <c r="G29" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="H29">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="1">
         <v>45684</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>-0.14888551006396403</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>-1.2507472006842274E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>-7.839271810530396E-2</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>-0.18726463711071731</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>-0.16179261396621167</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>-0.10885317994989256</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>-9.617663407634687E-2</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <v>-7.6628416883565406E-2</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>-0.12118133250040802</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <v>3.487595609175094E-2</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <v>-0.10581832719319165</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <v>-8.8735552090769138E-2</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <v>-0.12758901512656259</v>
       </c>
-      <c r="W29" s="4">
+      <c r="X29" s="4">
         <v>-0.12463447105127182</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>45523</v>
       </c>
@@ -2580,53 +2704,57 @@
       <c r="G30" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I30" s="1">
+      <c r="H30">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="1">
         <v>45691</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>-0.22592796877925117</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>-1.7616434965556694E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>-0.1652545118507783</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>-0.20810397268100611</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>-0.25512935927146674</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>-0.17685316931217263</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>-0.17939512982730454</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>-0.12928899292398685</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>-0.1503221014592101</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>-0.17219511130253382</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>-8.3270785982120371E-2</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <v>-0.29189547416733314</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>-0.25937322226880155</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>-0.26912284779757212</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>45523</v>
       </c>
@@ -2648,53 +2776,57 @@
       <c r="G31" s="7">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="I31" s="1">
+      <c r="H31">
+        <v>5.4816856486643376E-2</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="1">
         <v>45698</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>3.8892883573075521E-2</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>-6.7666321641727742E-2</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>4.2407061683917575E-3</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>2.8450327644468077E-2</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>-9.3554710664085841E-2</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>2.8230293152106914E-2</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>8.4847581109004575E-2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <v>3.7493543136249627E-2</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>2.9739589179451045E-3</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <v>4.431978888167043E-2</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <v>0.14860047752659458</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <v>-3.3398464841530008E-2</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <v>4.2429698063135617E-2</v>
       </c>
-      <c r="W31" s="4">
+      <c r="X31" s="4">
         <v>3.7055883689233557E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>45530</v>
       </c>
@@ -2716,53 +2848,57 @@
       <c r="G32" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I32" s="1">
+      <c r="H32">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="1">
         <v>45705</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>-6.7773490979926984E-3</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>-4.5850436353059458E-2</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>1.844547026590811E-2</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>2.3065445609073656E-2</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>-4.0348408365911546E-2</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>-1.9261703110400101E-4</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>-2.5657549456787419E-2</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <v>-8.2709876510457664E-3</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>-5.2414794318096838E-3</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <v>4.6849954800541726E-3</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <v>-6.9505225124727329E-2</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <v>-1.9226625667260841E-2</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <v>2.5233378122375464E-3</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="4">
         <v>-1.6910836954998728E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>45530</v>
       </c>
@@ -2784,53 +2920,57 @@
       <c r="G33" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="H33">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="1">
         <v>45712</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>-0.10868002829295434</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>-0.22012475849610055</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>-0.16011338533712066</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>-4.6320999347822196E-2</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>3.69112215303498E-2</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>-9.0896333139907845E-2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>-8.1553572377352737E-2</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>-7.6335375865259333E-2</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>-0.18922998997481025</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>-0.22303321937409723</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <v>-7.1814558591288061E-2</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <v>-8.0506178921004243E-2</v>
       </c>
-      <c r="V33" s="4">
+      <c r="W33" s="4">
         <v>-9.9354494428743792E-2</v>
       </c>
-      <c r="W33" s="4">
+      <c r="X33" s="4">
         <v>-7.1044047130965862E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>45530</v>
       </c>
@@ -2852,53 +2992,57 @@
       <c r="G34" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I34" s="1">
+      <c r="H34">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="1">
         <v>45719</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>-8.1969663030400403E-2</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>-6.6714753734430449E-2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>-0.10921221977746386</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>-0.13261711116902333</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>-0.20335180928024099</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>-0.10065902399776754</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>-8.9391581887093799E-2</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>-8.095789916034711E-2</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>-2.9263313952059666E-2</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>-0.18596876058779718</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>-0.14872481012798033</v>
       </c>
-      <c r="U34" s="4">
+      <c r="V34" s="4">
         <v>-1.2553972218434181E-2</v>
       </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4">
         <v>-9.6082735008258396E-2</v>
       </c>
-      <c r="W34" s="4">
+      <c r="X34" s="4">
         <v>-9.0240532683469349E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>45530</v>
       </c>
@@ -2920,53 +3064,57 @@
       <c r="G35" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I35" s="1">
+      <c r="H35">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="1">
         <v>45726</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>-0.11306965485528704</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>4.3419479578472003E-2</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>-0.17435259783199236</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>-9.7827471668561775E-2</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>-2.4038806756076996E-2</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>-0.12164629427963454</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>-6.5475981843992434E-2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>-0.12818642733428029</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>-0.12706391759151653</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <v>-0.15298865234857664</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <v>-5.7828676718286703E-2</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <v>-8.9809019163392595E-2</v>
       </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4">
         <v>-5.5344042857812706E-2</v>
       </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
         <v>-0.11014906956755764</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>45530</v>
       </c>
@@ -2988,53 +3136,57 @@
       <c r="G36" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I36" s="1">
+      <c r="H36">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="1">
         <v>45733</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>6.9650516246728092E-2</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>7.070869728776738E-2</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>1.1719080295520294E-2</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>2.6765525317813146E-2</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>9.2870178866307107E-2</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>3.9095785252468089E-2</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>7.4214895018507948E-2</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>5.2063180616983701E-2</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>2.962917476960587E-2</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <v>8.2347096586400687E-2</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <v>-8.3082049158812957E-3</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <v>6.3110961460414963E-2</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <v>9.8789658956922738E-2</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <v>0.11080626237008108</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>45530</v>
       </c>
@@ -3056,53 +3208,57 @@
       <c r="G37" s="7">
         <v>3.0329999999999999E-2</v>
       </c>
-      <c r="I37" s="1">
+      <c r="H37">
+        <v>-3.7790639559067682E-2</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="1">
         <v>45740</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>-1.3375167927052168E-2</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>3.7171484137214002E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>1.1214650116334574E-2</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>-2.9656562660474547E-2</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>-4.2062045373876073E-3</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>-2.3158834188091885E-2</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>-1.1814279697726046E-2</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>-1.3649763199473508E-2</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>-2.2375563168190258E-3</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>-2.5899831645384622E-2</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>-6.7813786610840268E-2</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <v>-5.7716753480763355E-3</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <v>5.8802518319673112E-2</v>
       </c>
-      <c r="W37" s="4">
+      <c r="X37" s="4">
         <v>-6.5696467914627132E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>45537</v>
       </c>
@@ -3124,53 +3280,57 @@
       <c r="G38" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I38" s="1">
+      <c r="H38">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="1">
         <v>45747</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>-0.15254263784631275</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>-8.5787300936156205E-2</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>-0.11301657584905284</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>-0.17543379479656684</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>-0.1742424598095956</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>-0.13504733546198011</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>-0.13726330201282935</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>-0.10237947217057192</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>-0.14757473110909533</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <v>-0.15434310278527497</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <v>-0.16489543422865691</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <v>-0.21769751498649409</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <v>-0.12862161050971035</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <v>-0.18299854971508134</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>45537</v>
       </c>
@@ -3192,53 +3352,57 @@
       <c r="G39" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I39" s="1">
+      <c r="H39">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="1">
         <v>45754</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>-6.6939987732837186E-2</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>-8.3830540664819334E-2</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>-8.0450809204387741E-2</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>-7.5479320539748429E-2</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>-6.6963564870720887E-2</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>-0.2934691926299739</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <v>-6.8983787491746176E-2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <v>-8.8327314806193685E-2</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>-0.10054564900866292</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <v>-0.13765132289666895</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <v>0.2081642634220934</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <v>-6.3719337842590956E-2</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <v>-9.5204688430950937E-2</v>
       </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
         <v>-0.10999524767975119</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>45537</v>
       </c>
@@ -3260,53 +3424,57 @@
       <c r="G40" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I40" s="1">
+      <c r="H40">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="1">
         <v>45761</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>4.6984091836980227E-3</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>-2.3152605033032056E-2</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>1.8655721930369913E-2</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>2.7880022239366434E-2</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>0.17939665084977743</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>4.4713879674265357E-2</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>3.4162233494165681E-2</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <v>8.3864540646354374E-3</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>1.0834687483608982E-2</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <v>-1.9488938263148736E-2</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <v>0.12199940741220701</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <v>-9.9259969568768871E-4</v>
       </c>
-      <c r="V40" s="4">
+      <c r="W40" s="4">
         <v>2.555174984927075E-2</v>
       </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
         <v>3.9474200818226467E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>45537</v>
       </c>
@@ -3328,53 +3496,57 @@
       <c r="G41" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I41" s="1">
+      <c r="H41">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="1">
         <v>45768</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>0.15026142003124751</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>5.3915831801684196E-2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>0.21597541155310973</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>0.16684388890464258</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>9.4890869222868365E-2</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>4.2385216765330171E-2</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>0.11991142090753715</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>0.1298344335941635</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>0.18385948332062793</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <v>0.16863170345792192</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <v>-1.6138404555172639E-2</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <v>0.16095028540422152</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <v>0.13184790305913824</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>0.3124433432042053</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>45537</v>
       </c>
@@ -3396,53 +3568,57 @@
       <c r="G42" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I42" s="1">
+      <c r="H42">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="1">
         <v>45775</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>-1.7238997565208424E-2</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>2.4275940854980787E-2</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>7.1670965029000805E-2</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>-6.9477503005877184E-2</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <v>-2.5214533288347434E-2</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>9.7428800620882869E-2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="Q42" s="4">
         <v>-1.0017399891281245E-2</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <v>6.5564981433240119E-2</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <v>4.4997390196502868E-2</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <v>2.2647101844690643E-2</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <v>-5.2508489377576621E-2</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <v>-3.9721742370982478E-2</v>
       </c>
-      <c r="V42" s="4">
+      <c r="W42" s="4">
         <v>-1.0425397280760274E-2</v>
       </c>
-      <c r="W42" s="4">
+      <c r="X42" s="4">
         <v>7.7243634019438564E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>45537</v>
       </c>
@@ -3464,53 +3640,57 @@
       <c r="G43" s="7">
         <v>3.0548000000000002E-2</v>
       </c>
-      <c r="I43" s="1">
+      <c r="H43">
+        <v>-5.4505239158045699E-2</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="1">
         <v>45782</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>0.1342115925164046</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>2.5169223749722414E-2</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>0.1253969400947901</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>3.990529565233338E-3</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>0.11065197206567239</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>5.3496403447997436E-2</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>4.9390116701474321E-2</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <v>5.0362046408371504E-2</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>0.16637450092548001</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <v>0.12875869737147133</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <v>2.4602370477903243E-2</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <v>6.9661850397911271E-2</v>
       </c>
-      <c r="V43" s="4">
+      <c r="W43" s="4">
         <v>1.0205041659708173E-2</v>
       </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
         <v>4.5402620546269722E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>45544</v>
       </c>
@@ -3532,53 +3712,57 @@
       <c r="G44" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I44" s="1">
+      <c r="H44">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="1">
         <v>45789</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>9.9287835808953978E-2</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>1.9597740205837037E-2</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>9.9499628536730986E-2</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>6.5253928507596703E-2</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>0.1674576206175715</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>5.2766420307665221E-2</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>8.6359949273956432E-2</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <v>7.4641652684143328E-2</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>0.14232050248001896</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <v>7.3684823942581315E-2</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <v>6.3702499079915237E-2</v>
       </c>
-      <c r="U44" s="4">
+      <c r="V44" s="4">
         <v>0.11689629104510491</v>
       </c>
-      <c r="V44" s="4">
+      <c r="W44" s="4">
         <v>5.0487919323422809E-2</v>
       </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
         <v>0.12604697667557346</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>45544</v>
       </c>
@@ -3600,53 +3784,57 @@
       <c r="G45" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="H45">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="1">
         <v>45796</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>-2.0869072928143863E-2</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>-3.4242079137273305E-2</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>-1.1936990141434808E-2</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>-3.4381921414813096E-2</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>8.9660141797370585E-2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>-7.8443745795902832E-3</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>-3.1450866565708072E-2</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>-4.4798311371849016E-3</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>0.1278250471943298</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <v>-0.1167146098314009</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <v>-1.0972846522308184E-2</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <v>-4.7534651941367863E-2</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <v>-3.6217317052271651E-2</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <v>-8.8696099409499157E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>45544</v>
       </c>
@@ -3668,53 +3856,57 @@
       <c r="G46" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I46" s="1">
+      <c r="H46">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="1">
         <v>45803</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>-6.7533442509113584E-2</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>-4.8489856530383228E-2</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>-2.1998572457395824E-2</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>-5.1941257292262621E-2</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>-9.4517207092956104E-3</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>-4.4532715433672335E-2</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>-3.5440739912310615E-2</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <v>-2.5582469993310469E-2</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>3.294345472225662E-3</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <v>-1.9854757737808173E-2</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <v>-4.6278484375596537E-4</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <v>-9.1712163004842223E-2</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <v>-9.6607567860195365E-2</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>-5.1592773817069795E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>45544</v>
       </c>
@@ -3736,53 +3928,57 @@
       <c r="G47" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I47" s="1">
+      <c r="H47">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="1">
         <v>45810</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>-7.2640513675862689E-2</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>-6.7799262944252509E-2</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>-5.0595742171043831E-2</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>-0.11333241863107139</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>-7.5512376878046683E-2</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>-4.1953146776492506E-2</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>-0.11895075500881476</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>-7.3856858337985401E-2</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>-2.7763698663579289E-3</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>-5.4734821120272274E-2</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <v>2.0051935542817131E-2</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <v>-8.3728566252532513E-2</v>
       </c>
-      <c r="V47" s="4">
+      <c r="W47" s="4">
         <v>-7.0694883330264746E-2</v>
       </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
         <v>-7.6220898572366108E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>45544</v>
       </c>
@@ -3804,53 +4000,57 @@
       <c r="G48" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I48" s="1">
+      <c r="H48">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="1">
         <v>45817</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>5.3839580278497154E-2</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>-7.6311474856499764E-3</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>2.812237542429296E-2</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>2.2112937561205422E-2</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O48" s="4">
         <v>-2.353177110868385E-2</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>3.2419840819681425E-2</v>
       </c>
-      <c r="P48" s="4">
+      <c r="Q48" s="4">
         <v>-1.4207848558644173E-2</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="4">
         <v>3.1634985612922209E-3</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <v>0.13194964947262031</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <v>5.9821659729637724E-2</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <v>2.816678156376588E-2</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <v>-1.0545059172225061E-2</v>
       </c>
-      <c r="V48" s="4">
+      <c r="W48" s="4">
         <v>7.6007573495706022E-3</v>
       </c>
-      <c r="W48" s="4">
+      <c r="X48" s="4">
         <v>-6.2959586751746843E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>45544</v>
       </c>
@@ -3872,53 +4072,57 @@
       <c r="G49" s="7">
         <v>3.2252999999999997E-2</v>
       </c>
-      <c r="I49" s="1">
+      <c r="H49">
+        <v>4.1667917372044866E-2</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="1">
         <v>45824</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>-0.19421311898006632</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>-6.2628564306181411E-2</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>-0.11474958420884948</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>-0.15077060905127562</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>-0.2020006644103273</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>-6.3667430383450907E-2</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>-0.11009064916414484</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>-0.1164385448884417</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>-0.13144266104608382</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>-0.1491338357093282</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>-0.11610768721160673</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>-0.139208713971753</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <v>-0.11372288253610517</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>-0.11673618161135896</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>45551</v>
       </c>
@@ -3940,53 +4144,57 @@
       <c r="G50" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="H50">
+        <v>5.621599259720516E-2</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="1">
         <v>45831</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>7.5112771588743313E-2</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>-8.7645166183801422E-3</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>-1.6965299482475701E-2</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <v>1.553078049832054E-2</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O50" s="4">
         <v>-4.6215749683696163E-2</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <v>-4.7251760555279014E-2</v>
       </c>
-      <c r="P50" s="4">
+      <c r="Q50" s="4">
         <v>4.1345400418872247E-2</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="R50" s="4">
         <v>-1.7323951897398836E-2</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <v>3.3463111774291808E-2</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <v>-4.0797705344542252E-2</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <v>-1.9703341931854388E-2</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <v>2.5327152026577652E-2</v>
       </c>
-      <c r="V50" s="4">
+      <c r="W50" s="4">
         <v>1.7867217417696219E-2</v>
       </c>
-      <c r="W50" s="4">
+      <c r="X50" s="4">
         <v>-6.6539265783162795E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>45551</v>
       </c>
@@ -4008,53 +4216,57 @@
       <c r="G51" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-      <c r="I51" s="1">
+      <c r="H51">
+        <v>5.621599259720516E-2</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="1">
         <v>45838</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>6.1219375411467547E-2</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>-5.1552860894941897E-2</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>-9.2162519488416507E-5</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>-8.2046851117616379E-3</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>1.2044941738648155E-2</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>-5.2448690750690041E-3</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <v>1.633859864558164E-2</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <v>-7.8447924319365054E-3</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>5.042165588930636E-2</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <v>3.1415305089848175E-2</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <v>2.3493114904290274E-3</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <v>-1.5978883635431037E-2</v>
       </c>
-      <c r="V51" s="4">
+      <c r="W51" s="4">
         <v>6.1583032237469651E-2</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <v>-5.7986268427840972E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>45551</v>
       </c>
@@ -4076,53 +4288,57 @@
       <c r="G52" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-      <c r="I52" s="1">
+      <c r="H52">
+        <v>5.621599259720516E-2</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="1">
         <v>45845</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>0.12141581578923816</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>7.5725404644651662E-2</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>0.10769146505567442</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>0.12069307542378781</v>
       </c>
-      <c r="N52" s="4">
+      <c r="O52" s="4">
         <v>0.19383680210115725</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <v>8.0606968184680744E-2</v>
       </c>
-      <c r="P52" s="4">
+      <c r="Q52" s="4">
         <v>6.5823007777881304E-2</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="4">
         <v>0.42557370022853686</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <v>9.2196132077280904E-2</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <v>8.0151241981169644E-2</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <v>-7.9892366696140818E-2</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <v>7.8590422944946767E-2</v>
       </c>
-      <c r="V52" s="4">
+      <c r="W52" s="4">
         <v>9.9270147945333911E-2</v>
       </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
         <v>0.12381424533467689</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>45551</v>
       </c>
@@ -4144,8 +4360,11 @@
       <c r="G53" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>5.621599259720516E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>45551</v>
       </c>
@@ -4167,8 +4386,11 @@
       <c r="G54" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H54">
+        <v>5.621599259720516E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45551</v>
       </c>
@@ -4190,8 +4412,11 @@
       <c r="G55" s="7">
         <v>3.5034999999999997E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>5.621599259720516E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>45558</v>
       </c>
@@ -4213,8 +4438,11 @@
       <c r="G56" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>45558</v>
       </c>
@@ -4236,8 +4464,11 @@
       <c r="G57" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>45558</v>
       </c>
@@ -4259,8 +4490,11 @@
       <c r="G58" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>45558</v>
       </c>
@@ -4282,8 +4516,11 @@
       <c r="G59" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>45558</v>
       </c>
@@ -4305,8 +4542,11 @@
       <c r="G60" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>45558</v>
       </c>
@@ -4328,8 +4568,11 @@
       <c r="G61" s="7">
         <v>3.5428000000000001E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>4.6838345355688982E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>45565</v>
       </c>
@@ -4351,8 +4594,11 @@
       <c r="G62" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>45565</v>
       </c>
@@ -4374,8 +4620,11 @@
       <c r="G63" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>45565</v>
       </c>
@@ -4397,8 +4646,11 @@
       <c r="G64" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>45565</v>
       </c>
@@ -4420,8 +4672,11 @@
       <c r="G65" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>45565</v>
       </c>
@@ -4443,8 +4698,11 @@
       <c r="G66" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>45565</v>
       </c>
@@ -4466,8 +4724,11 @@
       <c r="G67" s="7">
         <v>3.2865999999999999E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>-4.5940937687813911E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>45572</v>
       </c>
@@ -4489,8 +4750,11 @@
       <c r="G68" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>45572</v>
       </c>
@@ -4512,8 +4776,11 @@
       <c r="G69" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>45572</v>
       </c>
@@ -4535,8 +4802,11 @@
       <c r="G70" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>45572</v>
       </c>
@@ -4558,8 +4828,11 @@
       <c r="G71" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>45572</v>
       </c>
@@ -4581,8 +4854,11 @@
       <c r="G72" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>45572</v>
       </c>
@@ -4604,8 +4880,11 @@
       <c r="G73" s="7">
         <v>3.3884999999999998E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>2.7479059403364417E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>45579</v>
       </c>
@@ -4627,8 +4906,11 @@
       <c r="G74" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>45579</v>
       </c>
@@ -4650,8 +4932,11 @@
       <c r="G75" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>45579</v>
       </c>
@@ -4673,8 +4958,11 @@
       <c r="G76" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>45579</v>
       </c>
@@ -4696,8 +4984,11 @@
       <c r="G77" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>45579</v>
       </c>
@@ -4719,8 +5010,11 @@
       <c r="G78" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>45579</v>
       </c>
@@ -4742,8 +5036,11 @@
       <c r="G79" s="7">
         <v>3.5344E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>9.2485790145358945E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>45586</v>
       </c>
@@ -4765,8 +5062,11 @@
       <c r="G80" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>45586</v>
       </c>
@@ -4788,8 +5088,11 @@
       <c r="G81" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>45586</v>
       </c>
@@ -4811,8 +5114,11 @@
       <c r="G82" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>45586</v>
       </c>
@@ -4834,8 +5140,11 @@
       <c r="G83" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>45586</v>
       </c>
@@ -4857,8 +5166,11 @@
       <c r="G84" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>45586</v>
       </c>
@@ -4880,8 +5192,11 @@
       <c r="G85" s="7">
         <v>3.1488000000000002E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85">
+        <v>-5.5273216898283732E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>45593</v>
       </c>
@@ -4903,8 +5218,11 @@
       <c r="G86" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>45593</v>
       </c>
@@ -4926,8 +5244,11 @@
       <c r="G87" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>45593</v>
       </c>
@@ -4949,8 +5270,11 @@
       <c r="G88" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>45593</v>
       </c>
@@ -4972,8 +5296,11 @@
       <c r="G89" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>45593</v>
       </c>
@@ -4995,8 +5322,11 @@
       <c r="G90" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>45593</v>
       </c>
@@ -5018,8 +5348,11 @@
       <c r="G91" s="7">
         <v>3.0754E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91">
+        <v>4.5965502578225653E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>45600</v>
       </c>
@@ -5041,8 +5374,11 @@
       <c r="G92" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>45600</v>
       </c>
@@ -5064,8 +5400,11 @@
       <c r="G93" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>45600</v>
       </c>
@@ -5087,8 +5426,11 @@
       <c r="G94" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>45600</v>
       </c>
@@ -5110,8 +5452,11 @@
       <c r="G95" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>45600</v>
       </c>
@@ -5133,8 +5478,11 @@
       <c r="G96" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>45600</v>
       </c>
@@ -5156,8 +5504,11 @@
       <c r="G97" s="7">
         <v>3.1852999999999999E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97">
+        <v>5.9936109802665782E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>45607</v>
       </c>
@@ -5179,8 +5530,11 @@
       <c r="G98" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>45607</v>
       </c>
@@ -5202,8 +5556,11 @@
       <c r="G99" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>45607</v>
       </c>
@@ -5225,8 +5582,11 @@
       <c r="G100" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>45607</v>
       </c>
@@ -5248,8 +5608,11 @@
       <c r="G101" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>45607</v>
       </c>
@@ -5271,8 +5634,11 @@
       <c r="G102" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>45607</v>
       </c>
@@ -5294,8 +5660,11 @@
       <c r="G103" s="7">
         <v>3.3946999999999998E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103">
+        <v>0.19872307669136849</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>45614</v>
       </c>
@@ -5317,8 +5686,11 @@
       <c r="G104" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>45614</v>
       </c>
@@ -5340,8 +5712,11 @@
       <c r="G105" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>45614</v>
       </c>
@@ -5363,8 +5738,11 @@
       <c r="G106" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>45614</v>
       </c>
@@ -5386,8 +5764,11 @@
       <c r="G107" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>45614</v>
       </c>
@@ -5409,8 +5790,11 @@
       <c r="G108" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>45614</v>
       </c>
@@ -5432,8 +5816,11 @@
       <c r="G109" s="7">
         <v>3.2372999999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109">
+        <v>7.017283846150163E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>45621</v>
       </c>
@@ -5455,8 +5842,11 @@
       <c r="G110" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>45621</v>
       </c>
@@ -5478,8 +5868,11 @@
       <c r="G111" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>45621</v>
       </c>
@@ -5501,8 +5894,11 @@
       <c r="G112" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>45621</v>
       </c>
@@ -5524,8 +5920,11 @@
       <c r="G113" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>45621</v>
       </c>
@@ -5547,8 +5946,11 @@
       <c r="G114" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>45621</v>
       </c>
@@ -5570,8 +5972,11 @@
       <c r="G115" s="7">
         <v>3.2257000000000001E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115">
+        <v>-3.3991748509534267E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>45628</v>
       </c>
@@ -5593,8 +5998,11 @@
       <c r="G116" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <v>45628</v>
       </c>
@@ -5616,8 +6024,11 @@
       <c r="G117" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <v>45628</v>
       </c>
@@ -5639,8 +6050,11 @@
       <c r="G118" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <v>45628</v>
       </c>
@@ -5662,8 +6076,11 @@
       <c r="G119" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <v>45628</v>
       </c>
@@ -5685,8 +6102,11 @@
       <c r="G120" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>45628</v>
       </c>
@@ -5708,8 +6128,11 @@
       <c r="G121" s="7">
         <v>3.2715000000000001E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H121">
+        <v>3.1565697989869176E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <v>45635</v>
       </c>
@@ -5731,8 +6154,11 @@
       <c r="G122" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <v>45635</v>
       </c>
@@ -5754,8 +6180,11 @@
       <c r="G123" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <v>45635</v>
       </c>
@@ -5777,8 +6206,11 @@
       <c r="G124" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <v>45635</v>
       </c>
@@ -5800,8 +6232,11 @@
       <c r="G125" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <v>45635</v>
       </c>
@@ -5823,8 +6258,11 @@
       <c r="G126" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <v>45635</v>
       </c>
@@ -5846,8 +6284,11 @@
       <c r="G127" s="7">
         <v>3.1730999999999995E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127">
+        <v>1.9784108302068677E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <v>45642</v>
       </c>
@@ -5869,8 +6310,11 @@
       <c r="G128" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <v>45642</v>
       </c>
@@ -5892,8 +6336,11 @@
       <c r="G129" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <v>45642</v>
       </c>
@@ -5915,8 +6362,11 @@
       <c r="G130" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <v>45642</v>
       </c>
@@ -5938,8 +6388,11 @@
       <c r="G131" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <v>45642</v>
       </c>
@@ -5961,8 +6414,11 @@
       <c r="G132" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <v>45642</v>
       </c>
@@ -5984,8 +6440,11 @@
       <c r="G133" s="7">
         <v>3.1718000000000003E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133">
+        <v>-3.2229525473286553E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <v>45649</v>
       </c>
@@ -6007,8 +6466,11 @@
       <c r="G134" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <v>45649</v>
       </c>
@@ -6030,8 +6492,11 @@
       <c r="G135" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <v>45649</v>
       </c>
@@ -6053,8 +6518,11 @@
       <c r="G136" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <v>45649</v>
       </c>
@@ -6076,8 +6544,11 @@
       <c r="G137" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <v>45649</v>
       </c>
@@ -6099,8 +6570,11 @@
       <c r="G138" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <v>45649</v>
       </c>
@@ -6122,8 +6596,11 @@
       <c r="G139" s="7">
         <v>3.177E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139">
+        <v>-4.1068676270401942E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <v>45656</v>
       </c>
@@ -6145,8 +6622,11 @@
       <c r="G140" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>45656</v>
       </c>
@@ -6168,8 +6648,11 @@
       <c r="G141" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H141">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>45656</v>
       </c>
@@ -6191,8 +6674,11 @@
       <c r="G142" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>45656</v>
       </c>
@@ -6214,8 +6700,11 @@
       <c r="G143" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>45656</v>
       </c>
@@ -6237,8 +6726,11 @@
       <c r="G144" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>45656</v>
       </c>
@@ -6260,8 +6752,11 @@
       <c r="G145" s="7">
         <v>3.0575000000000001E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145">
+        <v>7.9403454550972723E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>45663</v>
       </c>
@@ -6283,8 +6778,11 @@
       <c r="G146" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>45663</v>
       </c>
@@ -6306,8 +6804,11 @@
       <c r="G147" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>45663</v>
       </c>
@@ -6329,8 +6830,11 @@
       <c r="G148" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <v>45663</v>
       </c>
@@ -6352,8 +6856,11 @@
       <c r="G149" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <v>45663</v>
       </c>
@@ -6375,8 +6882,11 @@
       <c r="G150" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <v>45663</v>
       </c>
@@ -6398,8 +6908,11 @@
       <c r="G151" s="7">
         <v>3.1653000000000001E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H151">
+        <v>-2.6064000979131212E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <v>45670</v>
       </c>
@@ -6421,8 +6934,11 @@
       <c r="G152" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <v>45670</v>
       </c>
@@ -6444,8 +6960,11 @@
       <c r="G153" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <v>45670</v>
       </c>
@@ -6467,8 +6986,11 @@
       <c r="G154" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <v>45670</v>
       </c>
@@ -6490,8 +7012,11 @@
       <c r="G155" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>45670</v>
       </c>
@@ -6513,8 +7038,11 @@
       <c r="G156" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>45670</v>
       </c>
@@ -6536,8 +7064,11 @@
       <c r="G157" s="7">
         <v>3.4570999999999998E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157">
+        <v>4.5997616644421473E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <v>45677</v>
       </c>
@@ -6559,8 +7090,11 @@
       <c r="G158" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <v>45677</v>
       </c>
@@ -6582,8 +7116,11 @@
       <c r="G159" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>45677</v>
       </c>
@@ -6605,8 +7142,11 @@
       <c r="G160" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>45677</v>
       </c>
@@ -6628,8 +7168,11 @@
       <c r="G161" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H161">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <v>45677</v>
       </c>
@@ -6651,8 +7194,11 @@
       <c r="G162" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <v>45677</v>
       </c>
@@ -6674,8 +7220,11 @@
       <c r="G163" s="7">
         <v>3.8557000000000001E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163">
+        <v>3.8098312681647553E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <v>45684</v>
       </c>
@@ -6697,8 +7246,11 @@
       <c r="G164" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <v>45684</v>
       </c>
@@ -6720,8 +7272,11 @@
       <c r="G165" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <v>45684</v>
       </c>
@@ -6743,8 +7298,11 @@
       <c r="G166" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <v>45684</v>
       </c>
@@ -6766,8 +7324,11 @@
       <c r="G167" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <v>45684</v>
       </c>
@@ -6789,8 +7350,11 @@
       <c r="G168" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <v>45684</v>
       </c>
@@ -6812,8 +7376,11 @@
       <c r="G169" s="7">
         <v>3.4151000000000001E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>-2.1259512846232894E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>45691</v>
       </c>
@@ -6835,8 +7402,11 @@
       <c r="G170" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>45691</v>
       </c>
@@ -6858,8 +7428,11 @@
       <c r="G171" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>45691</v>
       </c>
@@ -6881,8 +7454,11 @@
       <c r="G172" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>45691</v>
       </c>
@@ -6904,8 +7480,11 @@
       <c r="G173" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>45691</v>
       </c>
@@ -6927,8 +7506,11 @@
       <c r="G174" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>45691</v>
       </c>
@@ -6950,8 +7532,11 @@
       <c r="G175" s="7">
         <v>0.13072800000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175">
+        <v>-4.2011225685908697E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>45698</v>
       </c>
@@ -6973,8 +7558,11 @@
       <c r="G176" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>45698</v>
       </c>
@@ -6996,8 +7584,11 @@
       <c r="G177" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>45698</v>
       </c>
@@ -7019,8 +7610,11 @@
       <c r="G178" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>45698</v>
       </c>
@@ -7042,8 +7636,11 @@
       <c r="G179" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>45698</v>
       </c>
@@ -7065,8 +7662,11 @@
       <c r="G180" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>45698</v>
       </c>
@@ -7088,8 +7688,11 @@
       <c r="G181" s="7">
         <v>3.1729E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H181">
+        <v>-5.455611236851364E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>45705</v>
       </c>
@@ -7111,8 +7714,11 @@
       <c r="G182" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>45705</v>
       </c>
@@ -7134,8 +7740,11 @@
       <c r="G183" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>45705</v>
       </c>
@@ -7157,8 +7766,11 @@
       <c r="G184" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>45705</v>
       </c>
@@ -7180,8 +7792,11 @@
       <c r="G185" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>45705</v>
       </c>
@@ -7203,8 +7818,11 @@
       <c r="G186" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>45705</v>
       </c>
@@ -7226,8 +7844,11 @@
       <c r="G187" s="7">
         <v>3.0706999999999998E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187">
+        <v>-5.1677430471627752E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>45712</v>
       </c>
@@ -7249,8 +7870,11 @@
       <c r="G188" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>45712</v>
       </c>
@@ -7272,8 +7896,11 @@
       <c r="G189" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>45712</v>
       </c>
@@ -7295,8 +7922,11 @@
       <c r="G190" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>45712</v>
       </c>
@@ -7318,8 +7948,11 @@
       <c r="G191" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H191">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <v>45712</v>
       </c>
@@ -7341,8 +7974,11 @@
       <c r="G192" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>45712</v>
       </c>
@@ -7364,8 +8000,11 @@
       <c r="G193" s="7">
         <v>3.1013000000000002E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193">
+        <v>-9.1475188187575829E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <v>45719</v>
       </c>
@@ -7387,8 +8026,11 @@
       <c r="G194" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>45719</v>
       </c>
@@ -7410,8 +8052,11 @@
       <c r="G195" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <v>45719</v>
       </c>
@@ -7433,8 +8078,11 @@
       <c r="G196" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>45719</v>
       </c>
@@ -7456,8 +8104,11 @@
       <c r="G197" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <v>45719</v>
       </c>
@@ -7479,8 +8130,11 @@
       <c r="G198" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>45719</v>
       </c>
@@ -7502,8 +8156,11 @@
       <c r="G199" s="7">
         <v>3.6983999999999996E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199">
+        <v>-9.3925083906681393E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <v>45726</v>
       </c>
@@ -7525,8 +8182,11 @@
       <c r="G200" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>45726</v>
       </c>
@@ -7548,8 +8208,11 @@
       <c r="G201" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H201">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <v>45726</v>
       </c>
@@ -7571,8 +8234,11 @@
       <c r="G202" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>45726</v>
       </c>
@@ -7594,8 +8260,11 @@
       <c r="G203" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <v>45726</v>
       </c>
@@ -7617,8 +8286,11 @@
       <c r="G204" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <v>45726</v>
       </c>
@@ -7640,8 +8312,11 @@
       <c r="G205" s="7">
         <v>3.4023999999999999E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205">
+        <v>-4.9642631516698933E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <v>45733</v>
       </c>
@@ -7663,8 +8338,11 @@
       <c r="G206" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <v>45733</v>
       </c>
@@ -7686,8 +8364,11 @@
       <c r="G207" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <v>45733</v>
       </c>
@@ -7709,8 +8390,11 @@
       <c r="G208" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <v>45733</v>
       </c>
@@ -7732,8 +8416,11 @@
       <c r="G209" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="12">
         <v>45733</v>
       </c>
@@ -7755,8 +8442,11 @@
       <c r="G210" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="12">
         <v>45733</v>
       </c>
@@ -7778,8 +8468,11 @@
       <c r="G211" s="7">
         <v>2.9849000000000001E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H211">
+        <v>2.4226917152516837E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="12">
         <v>45740</v>
       </c>
@@ -7801,8 +8494,11 @@
       <c r="G212" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H212">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="12">
         <v>45740</v>
       </c>
@@ -7824,8 +8520,11 @@
       <c r="G213" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="12">
         <v>45740</v>
       </c>
@@ -7847,8 +8546,11 @@
       <c r="G214" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="12">
         <v>45740</v>
       </c>
@@ -7870,8 +8572,11 @@
       <c r="G215" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H215">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="12">
         <v>45740</v>
       </c>
@@ -7893,8 +8598,11 @@
       <c r="G216" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="12">
         <v>45740</v>
       </c>
@@ -7916,8 +8624,11 @@
       <c r="G217" s="7">
         <v>2.9643000000000003E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217">
+        <v>1.1663324218424956E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="12">
         <v>45747</v>
       </c>
@@ -7939,8 +8650,11 @@
       <c r="G218" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="12">
         <v>45747</v>
       </c>
@@ -7962,8 +8676,11 @@
       <c r="G219" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="12">
         <v>45747</v>
       </c>
@@ -7985,8 +8702,11 @@
       <c r="G220" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="12">
         <v>45747</v>
       </c>
@@ -8008,8 +8728,11 @@
       <c r="G221" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="12">
         <v>45747</v>
       </c>
@@ -8031,8 +8754,11 @@
       <c r="G222" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="12">
         <v>45747</v>
       </c>
@@ -8054,8 +8780,11 @@
       <c r="G223" s="7">
         <v>3.0464000000000001E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223">
+        <v>-3.2301102193070079E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>45754</v>
       </c>
@@ -8077,8 +8806,11 @@
       <c r="G224" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="12">
         <v>45754</v>
       </c>
@@ -8100,8 +8832,11 @@
       <c r="G225" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="12">
         <v>45754</v>
       </c>
@@ -8123,8 +8858,11 @@
       <c r="G226" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="12">
         <v>45754</v>
       </c>
@@ -8146,8 +8884,11 @@
       <c r="G227" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="12">
         <v>45754</v>
       </c>
@@ -8169,8 +8910,11 @@
       <c r="G228" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="12">
         <v>45754</v>
       </c>
@@ -8192,8 +8936,11 @@
       <c r="G229" s="7">
         <v>8.1608E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229">
+        <v>-1.5592003083434768E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="12">
         <v>45761</v>
       </c>
@@ -8215,8 +8962,11 @@
       <c r="G230" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="12">
         <v>45761</v>
       </c>
@@ -8238,8 +8988,11 @@
       <c r="G231" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="12">
         <v>45761</v>
       </c>
@@ -8261,8 +9014,11 @@
       <c r="G232" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="12">
         <v>45761</v>
       </c>
@@ -8284,8 +9040,11 @@
       <c r="G233" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="12">
         <v>45761</v>
       </c>
@@ -8307,8 +9066,11 @@
       <c r="G234" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="12">
         <v>45761</v>
       </c>
@@ -8330,8 +9092,11 @@
       <c r="G235" s="7">
         <v>3.3051999999999998E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235">
+        <v>3.8202351273210651E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="12">
         <v>45768</v>
       </c>
@@ -8353,8 +9118,11 @@
       <c r="G236" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="12">
         <v>45768</v>
       </c>
@@ -8376,8 +9144,11 @@
       <c r="G237" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>45768</v>
       </c>
@@ -8399,8 +9170,11 @@
       <c r="G238" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="12">
         <v>45768</v>
       </c>
@@ -8422,8 +9196,11 @@
       <c r="G239" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="12">
         <v>45768</v>
       </c>
@@ -8445,8 +9222,11 @@
       <c r="G240" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="12">
         <v>45768</v>
       </c>
@@ -8468,8 +9248,11 @@
       <c r="G241" s="7">
         <v>3.0533999999999999E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241">
+        <v>0.10117895280253768</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="12">
         <v>45775</v>
       </c>
@@ -8491,8 +9274,11 @@
       <c r="G242" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="12">
         <v>45775</v>
       </c>
@@ -8514,8 +9300,11 @@
       <c r="G243" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="12">
         <v>45775</v>
       </c>
@@ -8537,8 +9326,11 @@
       <c r="G244" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H244">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>45775</v>
       </c>
@@ -8560,8 +9352,11 @@
       <c r="G245" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H245">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>45775</v>
       </c>
@@ -8583,8 +9378,11 @@
       <c r="G246" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H246">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="12">
         <v>45775</v>
       </c>
@@ -8606,8 +9404,11 @@
       <c r="G247" s="7">
         <v>3.0043E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H247">
+        <v>2.3509206934389355E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="12">
         <v>45782</v>
       </c>
@@ -8629,8 +9430,11 @@
       <c r="G248" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H248">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="12">
         <v>45782</v>
       </c>
@@ -8652,8 +9456,11 @@
       <c r="G249" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H249">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="12">
         <v>45782</v>
       </c>
@@ -8675,8 +9482,11 @@
       <c r="G250" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H250">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="12">
         <v>45782</v>
       </c>
@@ -8698,8 +9508,11 @@
       <c r="G251" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H251">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="12">
         <v>45782</v>
       </c>
@@ -8721,8 +9534,11 @@
       <c r="G252" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H252">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>45782</v>
       </c>
@@ -8744,8 +9560,11 @@
       <c r="G253" s="7">
         <v>2.9959E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H253">
+        <v>5.4341696344752999E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="12">
         <v>45789</v>
       </c>
@@ -8767,8 +9586,11 @@
       <c r="G254" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H254">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="12">
         <v>45789</v>
       </c>
@@ -8790,8 +9612,11 @@
       <c r="G255" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H255">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="12">
         <v>45789</v>
       </c>
@@ -8813,8 +9638,11 @@
       <c r="G256" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H256">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="12">
         <v>45789</v>
       </c>
@@ -8836,8 +9664,11 @@
       <c r="G257" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H257">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="12">
         <v>45789</v>
       </c>
@@ -8859,8 +9690,11 @@
       <c r="G258" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H258">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="12">
         <v>45789</v>
       </c>
@@ -8882,8 +9716,11 @@
       <c r="G259" s="7">
         <v>3.2522999999999996E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H259">
+        <v>3.3925645021710096E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="12">
         <v>45796</v>
       </c>
@@ -8905,8 +9742,11 @@
       <c r="G260" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H260">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="12">
         <v>45796</v>
       </c>
@@ -8928,8 +9768,11 @@
       <c r="G261" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H261">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="12">
         <v>45796</v>
       </c>
@@ -8951,8 +9794,11 @@
       <c r="G262" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H262">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="12">
         <v>45796</v>
       </c>
@@ -8974,8 +9820,11 @@
       <c r="G263" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H263">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="12">
         <v>45796</v>
       </c>
@@ -8997,8 +9846,11 @@
       <c r="G264" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H264">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="12">
         <v>45796</v>
       </c>
@@ -9020,8 +9872,11 @@
       <c r="G265" s="7">
         <v>3.3980999999999997E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H265">
+        <v>4.1790543879192975E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="12">
         <v>45803</v>
       </c>
@@ -9043,8 +9898,11 @@
       <c r="G266" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H266">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="12">
         <v>45803</v>
       </c>
@@ -9066,8 +9924,11 @@
       <c r="G267" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H267">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="12">
         <v>45803</v>
       </c>
@@ -9089,8 +9950,11 @@
       <c r="G268" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H268">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="12">
         <v>45803</v>
       </c>
@@ -9112,8 +9976,11 @@
       <c r="G269" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H269">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="12">
         <v>45803</v>
       </c>
@@ -9135,8 +10002,11 @@
       <c r="G270" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="12">
         <v>45803</v>
       </c>
@@ -9158,8 +10028,11 @@
       <c r="G271" s="7">
         <v>3.0232999999999999E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271">
+        <v>-1.4670927120451953E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="12">
         <v>45810</v>
       </c>
@@ -9181,8 +10054,11 @@
       <c r="G272" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="12">
         <v>45810</v>
       </c>
@@ -9204,8 +10080,11 @@
       <c r="G273" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H273">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="12">
         <v>45810</v>
       </c>
@@ -9227,8 +10106,11 @@
       <c r="G274" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H274">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="12">
         <v>45810</v>
       </c>
@@ -9250,8 +10132,11 @@
       <c r="G275" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="12">
         <v>45810</v>
       </c>
@@ -9273,8 +10158,11 @@
       <c r="G276" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H276">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="12">
         <v>45810</v>
       </c>
@@ -9296,8 +10184,11 @@
       <c r="G277" s="7">
         <v>3.0280000000000001E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H277">
+        <v>-1.7244397593776068E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="12">
         <v>45817</v>
       </c>
@@ -9319,8 +10210,11 @@
       <c r="G278" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H278">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="12">
         <v>45817</v>
       </c>
@@ -9342,8 +10236,11 @@
       <c r="G279" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H279">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="12">
         <v>45817</v>
       </c>
@@ -9365,8 +10262,11 @@
       <c r="G280" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H280">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="12">
         <v>45817</v>
       </c>
@@ -9388,8 +10288,11 @@
       <c r="G281" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H281">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="12">
         <v>45817</v>
       </c>
@@ -9411,8 +10314,11 @@
       <c r="G282" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H282">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="12">
         <v>45817</v>
       </c>
@@ -9434,8 +10340,11 @@
       <c r="G283" s="7">
         <v>2.9763999999999999E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H283">
+        <v>2.5423942693217114E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="12">
         <v>45824</v>
       </c>
@@ -9457,8 +10366,11 @@
       <c r="G284" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H284">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="12">
         <v>45824</v>
       </c>
@@ -9480,8 +10392,11 @@
       <c r="G285" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H285">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="12">
         <v>45824</v>
       </c>
@@ -9503,8 +10418,11 @@
       <c r="G286" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H286">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="12">
         <v>45824</v>
       </c>
@@ -9526,8 +10444,11 @@
       <c r="G287" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H287">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="12">
         <v>45824</v>
       </c>
@@ -9549,8 +10470,11 @@
       <c r="G288" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H288">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="12">
         <v>45824</v>
       </c>
@@ -9572,8 +10496,11 @@
       <c r="G289" s="7">
         <v>2.9479999999999999E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H289">
+        <v>-3.3890747787207923E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="12">
         <v>45831</v>
       </c>
@@ -9595,8 +10522,11 @@
       <c r="G290" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H290">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="12">
         <v>45831</v>
       </c>
@@ -9618,8 +10548,11 @@
       <c r="G291" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H291">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="12">
         <v>45831</v>
       </c>
@@ -9641,8 +10574,11 @@
       <c r="G292" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H292">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="12">
         <v>45831</v>
       </c>
@@ -9664,8 +10600,11 @@
       <c r="G293" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H293">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="12">
         <v>45831</v>
       </c>
@@ -9687,8 +10626,11 @@
       <c r="G294" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H294">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="12">
         <v>45831</v>
       </c>
@@ -9710,8 +10652,11 @@
       <c r="G295" s="7">
         <v>3.3159999999999995E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H295">
+        <v>2.9989483287489162E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="12">
         <v>45838</v>
       </c>
@@ -9733,8 +10678,11 @@
       <c r="G296" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H296">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="12">
         <v>45838</v>
       </c>
@@ -9756,8 +10704,11 @@
       <c r="G297" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H297">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="12">
         <v>45838</v>
       </c>
@@ -9779,8 +10730,11 @@
       <c r="G298" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H298">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="12">
         <v>45838</v>
       </c>
@@ -9802,8 +10756,11 @@
       <c r="G299" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H299">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="12">
         <v>45838</v>
       </c>
@@ -9825,8 +10782,11 @@
       <c r="G300" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H300">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="12">
         <v>45838</v>
       </c>
@@ -9848,8 +10808,11 @@
       <c r="G301" s="7">
         <v>2.9489999999999999E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H301">
+        <v>1.0860204715878806E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="12">
         <v>45845</v>
       </c>
@@ -9871,8 +10834,11 @@
       <c r="G302" s="7">
         <v>2.9537000000000001E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H302">
+        <v>5.5405302494148767E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="12">
         <v>45845</v>
       </c>
@@ -9894,8 +10860,11 @@
       <c r="G303" s="7">
         <v>2.9537000000000001E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H303">
+        <v>5.5405302494148767E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="12">
         <v>45845</v>
       </c>
@@ -9917,8 +10886,11 @@
       <c r="G304" s="7">
         <v>2.9537000000000001E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H304">
+        <v>5.5405302494148767E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="12">
         <v>45845</v>
       </c>
@@ -9940,8 +10912,11 @@
       <c r="G305" s="7">
         <v>2.9537000000000001E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H305">
+        <v>5.5405302494148767E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="12">
         <v>45845</v>
       </c>
@@ -9963,8 +10938,11 @@
       <c r="G306" s="7">
         <v>2.9537000000000001E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H306">
+        <v>5.5405302494148767E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="12">
         <v>45845</v>
       </c>
@@ -9985,6 +10963,9 @@
       </c>
       <c r="G307" s="7">
         <v>2.9537000000000001E-2</v>
+      </c>
+      <c r="H307">
+        <v>5.5405302494148767E-2</v>
       </c>
     </row>
   </sheetData>
